--- a/resources/Excel Representation of Curvify.xlsx
+++ b/resources/Excel Representation of Curvify.xlsx
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>sumx</t>
   </si>
@@ -1182,6 +1182,12 @@
       </rPr>
       <t xml:space="preserve"> = -0.1 + 4.983277445*e^(-0.429926372*x)</t>
     </r>
+  </si>
+  <si>
+    <t>yr[i]</t>
+  </si>
+  <si>
+    <t>Random Number</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1335,6 +1341,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1726,11 +1738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159202304"/>
-        <c:axId val="159224576"/>
+        <c:axId val="46551424"/>
+        <c:axId val="46552960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159202304"/>
+        <c:axId val="46551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,12 +1752,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159224576"/>
+        <c:crossAx val="46552960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159224576"/>
+        <c:axId val="46552960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1768,261 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159202304"/>
+        <c:crossAx val="46551424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-PH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Second Series of Data (Original Still)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Regressified Y-Values</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.43447550306211724"/>
+                  <c:y val="-5.5555555555555552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.47912300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89890400000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1554899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.53382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0780599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9821400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2587400000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2171299999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46570880"/>
+        <c:axId val="134096000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46570880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134096000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134096000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46570880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1804,6 +2070,41 @@
       <xdr:colOff>291352</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>16809</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2114,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,8 +2449,14 @@
         <v>12</v>
       </c>
       <c r="E1" s="1">
-        <f>0.2/2</f>
+        <f>0.2/$G$1</f>
         <v>0.1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2185,12 +2492,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2234,7 +2541,7 @@
         <v>1.8870696490323797</v>
       </c>
       <c r="E8" s="1">
-        <f>A8*LN(B8)</f>
+        <f t="shared" ref="E8:E15" si="0">A8*LN(B8)</f>
         <v>-1.8870696490323797</v>
       </c>
       <c r="F8" s="1">
@@ -2242,7 +2549,7 @@
         <v>-1.8870696490323797</v>
       </c>
       <c r="G8" s="1">
-        <f>A8^2</f>
+        <f t="shared" ref="G8:G15" si="1">A8^2</f>
         <v>1</v>
       </c>
       <c r="H8" s="1">
@@ -2258,15 +2565,15 @@
         <v>5.5</v>
       </c>
       <c r="C9" s="1">
-        <f>C8+A9</f>
+        <f t="shared" ref="C9:C15" si="2">C8+A9</f>
         <v>-1.5</v>
       </c>
       <c r="D9" s="1">
-        <f>D8+LN(B9)</f>
+        <f t="shared" ref="D9:D15" si="3">D8+LN(B9)</f>
         <v>3.591817741270805</v>
       </c>
       <c r="E9" s="1">
-        <f>A9*LN(B9)</f>
+        <f t="shared" si="0"/>
         <v>-0.85237404611921264</v>
       </c>
       <c r="F9" s="1">
@@ -2274,7 +2581,7 @@
         <v>-2.7394436951515924</v>
       </c>
       <c r="G9" s="1">
-        <f>A9^2</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="H9" s="1">
@@ -2290,27 +2597,27 @@
         <v>3.9</v>
       </c>
       <c r="C10" s="1">
-        <f>C9+A10</f>
+        <f t="shared" si="2"/>
         <v>-0.9</v>
       </c>
       <c r="D10" s="1">
-        <f>D9+LN(B10)</f>
+        <f t="shared" si="3"/>
         <v>4.9527942944064058</v>
       </c>
       <c r="E10" s="1">
-        <f>A10*LN(B10)</f>
+        <f t="shared" si="0"/>
         <v>0.81658593188136031</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F15" si="0">F9+E10</f>
+        <f t="shared" ref="F10:F15" si="4">F9+E10</f>
         <v>-1.9228577632702319</v>
       </c>
       <c r="G10" s="1">
-        <f>A10^2</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:H15" si="1">H9+G10</f>
+        <f t="shared" ref="H10:H15" si="5">H9+G10</f>
         <v>1.6099999999999999</v>
       </c>
     </row>
@@ -2322,33 +2629,33 @@
         <v>2.5</v>
       </c>
       <c r="C11" s="1">
-        <f>C10+A11</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="D11" s="1">
-        <f>D10+LN(B11)</f>
+        <f t="shared" si="3"/>
         <v>5.8690850262805609</v>
       </c>
       <c r="E11" s="1">
-        <f>A11*LN(B11)</f>
+        <f t="shared" si="0"/>
         <v>1.7409523905608946</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.18190537270933738</v>
       </c>
       <c r="G11" s="1">
-        <f>A11^2</f>
+        <f t="shared" si="1"/>
         <v>3.61</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.22</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2358,27 +2665,27 @@
         <v>1.3</v>
       </c>
       <c r="C12" s="1">
-        <f>C11+A12</f>
+        <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
       <c r="D12" s="1">
-        <f>D11+LN(B12)</f>
+        <f t="shared" si="3"/>
         <v>6.1314492907480522</v>
       </c>
       <c r="E12" s="1">
-        <f>A12*LN(B12)</f>
+        <f t="shared" si="0"/>
         <v>0.996984204976466</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.81507883226712863</v>
       </c>
       <c r="G12" s="1">
-        <f>A12^2</f>
+        <f t="shared" si="1"/>
         <v>14.44</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19.66</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -2397,27 +2704,27 @@
         <v>0.9</v>
       </c>
       <c r="C13" s="1">
-        <f>C12+A13</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D13" s="1">
-        <f>D12+LN(B13)</f>
+        <f t="shared" si="3"/>
         <v>6.0260887750902263</v>
       </c>
       <c r="E13" s="1">
-        <f>A13*LN(B13)</f>
+        <f t="shared" si="0"/>
         <v>-0.54787468142069673</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.2672041508464319</v>
       </c>
       <c r="G13" s="1">
-        <f>A13^2</f>
+        <f t="shared" si="1"/>
         <v>27.040000000000003</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>46.7</v>
       </c>
       <c r="I13" s="15" t="s">
@@ -2436,27 +2743,27 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="1">
-        <f>C13+A14</f>
+        <f t="shared" si="2"/>
         <v>16.149999999999999</v>
       </c>
       <c r="D14" s="1">
-        <f>D13+LN(B14)</f>
+        <f t="shared" si="3"/>
         <v>5.3329415945302809</v>
       </c>
       <c r="E14" s="1">
-        <f>A14*LN(B14)</f>
+        <f t="shared" si="0"/>
         <v>-4.2628551604436637</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-3.995651009597232</v>
       </c>
       <c r="G14" s="1">
-        <f>A14^2</f>
+        <f t="shared" si="1"/>
         <v>37.822500000000005</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>84.522500000000008</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -2475,27 +2782,27 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="1">
-        <f>C14+A15</f>
+        <f t="shared" si="2"/>
         <v>24.049999999999997</v>
       </c>
       <c r="D15" s="1">
-        <f>D14+LN(B15)</f>
+        <f t="shared" si="3"/>
         <v>3.7235036820961804</v>
       </c>
       <c r="E15" s="1">
-        <f>A15*LN(B15)</f>
+        <f t="shared" si="0"/>
         <v>-12.714559508229392</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-16.710210517826624</v>
       </c>
       <c r="G15" s="1">
-        <f>A15^2</f>
+        <f t="shared" si="1"/>
         <v>62.410000000000004</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>146.9325</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -2507,19 +2814,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2564,7 +2871,7 @@
         <v>1.8718021769015913</v>
       </c>
       <c r="E19" s="1">
-        <f>A19*LN(B19)</f>
+        <f t="shared" ref="E19:E26" si="6">A19*LN(B19)</f>
         <v>-1.8718021769015913</v>
       </c>
       <c r="F19" s="1">
@@ -2572,7 +2879,7 @@
         <v>-1.8718021769015913</v>
       </c>
       <c r="G19" s="1">
-        <f>A19^2</f>
+        <f t="shared" ref="G19:G26" si="7">A19^2</f>
         <v>1</v>
       </c>
       <c r="H19" s="1">
@@ -2585,19 +2892,19 @@
         <v>-0.5</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B26" si="2">B9-$E$1</f>
+        <f t="shared" ref="B20:B26" si="8">B9-$E$1</f>
         <v>5.4</v>
       </c>
       <c r="C20" s="1">
-        <f>C19+A20</f>
+        <f t="shared" ref="C20:C26" si="9">C19+A20</f>
         <v>-1.5</v>
       </c>
       <c r="D20" s="1">
-        <f>D19+LN(B20)</f>
+        <f t="shared" ref="D20:D26" si="10">D19+LN(B20)</f>
         <v>3.5582011304718204</v>
       </c>
       <c r="E20" s="1">
-        <f>A20*LN(B20)</f>
+        <f t="shared" si="6"/>
         <v>-0.84319947678511442</v>
       </c>
       <c r="F20" s="1">
@@ -2605,7 +2912,7 @@
         <v>-2.7150016536867057</v>
       </c>
       <c r="G20" s="1">
-        <f>A20^2</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="H20" s="1">
@@ -2618,31 +2925,31 @@
         <v>0.6</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8</v>
       </c>
       <c r="C21" s="1">
-        <f>C20+A21</f>
+        <f t="shared" si="9"/>
         <v>-0.9</v>
       </c>
       <c r="D21" s="1">
-        <f>D20+LN(B21)</f>
+        <f t="shared" si="10"/>
         <v>4.8932021972041602</v>
       </c>
       <c r="E21" s="1">
-        <f>A21*LN(B21)</f>
+        <f t="shared" si="6"/>
         <v>0.80100064003940397</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ref="F21:F26" si="3">F20+E21</f>
+        <f t="shared" ref="F21:F26" si="11">F20+E21</f>
         <v>-1.9140010136473018</v>
       </c>
       <c r="G21" s="1">
-        <f>A21^2</f>
+        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H26" si="4">H20+G21</f>
+        <f t="shared" ref="H21:H26" si="12">H20+G21</f>
         <v>1.6099999999999999</v>
       </c>
     </row>
@@ -2651,31 +2958,31 @@
         <v>1.9</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
       <c r="C22" s="1">
-        <f>C21+A22</f>
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="D22" s="1">
-        <f>D21+LN(B22)</f>
+        <f t="shared" si="10"/>
         <v>5.7686709345580596</v>
       </c>
       <c r="E22" s="1">
-        <f>A22*LN(B22)</f>
+        <f t="shared" si="6"/>
         <v>1.6633906009724095</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>-0.25061041267489226</v>
       </c>
       <c r="G22" s="1">
-        <f>A22^2</f>
+        <f t="shared" si="7"/>
         <v>3.61</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5.22</v>
       </c>
     </row>
@@ -2684,68 +2991,68 @@
         <v>3.8</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
       <c r="C23" s="1">
-        <f>C22+A23</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
       <c r="D23" s="1">
-        <f>D22+LN(B23)</f>
+        <f t="shared" si="10"/>
         <v>5.9509924913520145</v>
       </c>
       <c r="E23" s="1">
-        <f>A23*LN(B23)</f>
+        <f t="shared" si="6"/>
         <v>0.69282191581702746</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.4422115031421352</v>
       </c>
       <c r="G23" s="1">
-        <f>A23^2</f>
+        <f t="shared" si="7"/>
         <v>14.44</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>19.66</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.2</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="C24" s="1">
-        <f>C23+A24</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <f>D23+LN(B24)</f>
+        <f t="shared" si="10"/>
         <v>5.7278489400378048</v>
       </c>
       <c r="E24" s="1">
-        <f>A24*LN(B24)</f>
+        <f t="shared" si="6"/>
         <v>-1.1603464668338905</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>-0.71813496369175533</v>
       </c>
       <c r="G24" s="1">
-        <f>A24^2</f>
+        <f t="shared" si="7"/>
         <v>27.040000000000003</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>46.7</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -2761,31 +3068,31 @@
         <v>6.15</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="C25" s="1">
-        <f>C24+A25</f>
+        <f t="shared" si="9"/>
         <v>16.149999999999999</v>
       </c>
       <c r="D25" s="1">
-        <f>D24+LN(B25)</f>
+        <f t="shared" si="10"/>
         <v>4.8115582081636497</v>
       </c>
       <c r="E25" s="1">
-        <f>A25*LN(B25)</f>
+        <f t="shared" si="6"/>
         <v>-5.6351880010260533</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>-6.3533229647178082</v>
       </c>
       <c r="G25" s="1">
-        <f>A25^2</f>
+        <f t="shared" si="7"/>
         <v>37.822500000000005</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>84.522500000000008</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -2801,31 +3108,31 @@
         <v>7.9</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="C26" s="1">
-        <f>C25+A26</f>
+        <f t="shared" si="9"/>
         <v>24.049999999999997</v>
       </c>
       <c r="D26" s="1">
-        <f>D25+LN(B26)</f>
+        <f t="shared" si="10"/>
         <v>2.5089731151696042</v>
       </c>
       <c r="E26" s="1">
-        <f>A26*LN(B26)</f>
+        <f t="shared" si="6"/>
         <v>-18.19042223465296</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>-24.543745199370768</v>
       </c>
       <c r="G26" s="1">
-        <f>A26^2</f>
+        <f t="shared" si="7"/>
         <v>62.410000000000004</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>146.9325</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -2837,19 +3144,19 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
@@ -2878,7 +3185,7 @@
         <v>-1</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ref="C30:C37" si="5">B8-$E$1</f>
+        <f t="shared" ref="C30:C37" si="13">B8-$E$1</f>
         <v>6.5</v>
       </c>
       <c r="D30" s="2">
@@ -2888,11 +3195,11 @@
         <v>8.2190858130864566</v>
       </c>
       <c r="F30" s="1">
-        <f>$J$15*EXP($J$14*B30)</f>
+        <f t="shared" ref="F30:F37" si="14">$J$15*EXP($J$14*B30)</f>
         <v>7.1229513245898772</v>
       </c>
       <c r="G30" s="1">
-        <f>$J$25*EXP($J$26*B30)</f>
+        <f t="shared" ref="G30:G37" si="15">$J$25*EXP($J$26*B30)</f>
         <v>7.6600167338387033</v>
       </c>
     </row>
@@ -2901,7 +3208,7 @@
         <v>-0.5</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>5.4</v>
       </c>
       <c r="D31" s="2">
@@ -2911,11 +3218,11 @@
         <v>6.9997757863763077</v>
       </c>
       <c r="F31" s="1">
-        <f>$J$15*EXP($J$14*B31)</f>
+        <f t="shared" si="14"/>
         <v>5.908421621478297</v>
       </c>
       <c r="G31" s="1">
-        <f>$J$25*EXP($J$26*B31)</f>
+        <f t="shared" si="15"/>
         <v>6.1783483729724775</v>
       </c>
     </row>
@@ -2924,7 +3231,7 @@
         <v>0.6</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>3.8</v>
       </c>
       <c r="D32" s="2">
@@ -2934,11 +3241,11 @@
         <v>5.0013598698737418</v>
       </c>
       <c r="F32" s="1">
-        <f>$J$15*EXP($J$14*B32)</f>
+        <f t="shared" si="14"/>
         <v>3.9161271444471066</v>
       </c>
       <c r="G32" s="1">
-        <f>$J$25*EXP($J$26*B32)</f>
+        <f t="shared" si="15"/>
         <v>3.8502264805399697</v>
       </c>
     </row>
@@ -2947,7 +3254,7 @@
         <v>1.9</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
       <c r="D33" s="2">
@@ -2957,11 +3264,11 @@
         <v>3.4912126381228763</v>
       </c>
       <c r="F33" s="1">
-        <f>$J$15*EXP($J$14*B33)</f>
+        <f t="shared" si="14"/>
         <v>2.4086111320279544</v>
       </c>
       <c r="G33" s="1">
-        <f>$J$25*EXP($J$26*B33)</f>
+        <f t="shared" si="15"/>
         <v>2.2016953753094062</v>
       </c>
     </row>
@@ -2970,7 +3277,7 @@
         <v>3.8</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
       <c r="D34" s="2">
@@ -2980,11 +3287,11 @@
         <v>2.2662977438048602</v>
       </c>
       <c r="F34" s="1">
-        <f>$J$15*EXP($J$14*B34)</f>
+        <f t="shared" si="14"/>
         <v>1.1837238487471953</v>
       </c>
       <c r="G34" s="1">
-        <f>$J$25*EXP($J$26*B34)</f>
+        <f t="shared" si="15"/>
         <v>0.97274586438172661</v>
       </c>
     </row>
@@ -2993,7 +3300,7 @@
         <v>5.2</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
       <c r="D35" s="2">
@@ -3003,11 +3310,11 @@
         <v>1.7848090638340155</v>
       </c>
       <c r="F35" s="1">
-        <f>$J$15*EXP($J$14*B35)</f>
+        <f t="shared" si="14"/>
         <v>0.70133030201882729</v>
       </c>
       <c r="G35" s="1">
-        <f>$J$25*EXP($J$26*B35)</f>
+        <f t="shared" si="15"/>
         <v>0.53284252977900237</v>
       </c>
     </row>
@@ -3016,7 +3323,7 @@
         <v>6.15</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="D36" s="2">
@@ -3026,11 +3333,11 @@
         <v>1.5758137679088922</v>
       </c>
       <c r="F36" s="1">
-        <f>$J$15*EXP($J$14*B36)</f>
+        <f t="shared" si="14"/>
         <v>0.49165952562924187</v>
       </c>
       <c r="G36" s="1">
-        <f>$J$25*EXP($J$26*B36)</f>
+        <f t="shared" si="15"/>
         <v>0.3541766803066147</v>
       </c>
     </row>
@@ -3039,7 +3346,7 @@
         <v>7.9</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="D37" s="2">
@@ -3049,11 +3356,11 @@
         <v>1.3408189283330221</v>
       </c>
       <c r="F37" s="1">
-        <f>$J$15*EXP($J$14*B37)</f>
+        <f t="shared" si="14"/>
         <v>0.25556696495996167</v>
       </c>
       <c r="G37" s="1">
-        <f>$J$25*EXP($J$26*B37)</f>
+        <f t="shared" si="15"/>
         <v>0.16690499095008166</v>
       </c>
     </row>
@@ -3062,27 +3369,27 @@
         <v>19</v>
       </c>
       <c r="B38" s="16">
-        <f>AVERAGE(B30:B37)</f>
+        <f t="shared" ref="B38:G38" si="16">AVERAGE(B30:B37)</f>
         <v>3.0062499999999996</v>
       </c>
       <c r="C38" s="16">
-        <f>AVERAGE(C30:C37)</f>
+        <f t="shared" si="16"/>
         <v>2.5749999999999997</v>
       </c>
       <c r="D38" s="16">
-        <f>AVERAGE(D30:D37)</f>
+        <f t="shared" si="16"/>
         <v>2.6749999999999998</v>
       </c>
       <c r="E38" s="16">
-        <f>AVERAGE(E30:E37)</f>
+        <f t="shared" si="16"/>
         <v>3.834896701417521</v>
       </c>
       <c r="F38" s="16">
-        <f>AVERAGE(F30:F37)</f>
+        <f t="shared" si="16"/>
         <v>2.7485489829873075</v>
       </c>
       <c r="G38" s="16">
-        <f>AVERAGE(G30:G37)</f>
+        <f t="shared" si="16"/>
         <v>2.7396196285097476</v>
       </c>
     </row>
@@ -3113,19 +3420,19 @@
     </row>
     <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
@@ -3164,7 +3471,7 @@
         <v>6.6</v>
       </c>
       <c r="D44" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B44))</f>
+        <f t="shared" ref="D44:D51" si="17">$D$39+$J$25*(EXP($J$26*B44))</f>
         <v>8.9666448332680382</v>
       </c>
       <c r="E44" s="1">
@@ -3184,7 +3491,7 @@
         <v>6.5216506670562966</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" ref="I44:I51" si="6">C44-D44</f>
+        <f t="shared" ref="I44:I51" si="18">C44-D44</f>
         <v>-2.3666448332680385</v>
       </c>
       <c r="J44" s="1">
@@ -3200,31 +3507,31 @@
         <v>5.5</v>
       </c>
       <c r="D45" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B45))</f>
+        <f t="shared" si="17"/>
         <v>7.4849764724018124</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ref="E45:E51" si="7">D45-C45</f>
+        <f t="shared" ref="E45:E51" si="19">D45-C45</f>
         <v>1.9849764724018124</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" ref="F45:F51" si="8">E45^2</f>
+        <f t="shared" ref="F45:F51" si="20">E45^2</f>
         <v>3.9401315959887433</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" ref="G45:G51" si="9">C45-$D$52</f>
+        <f t="shared" ref="G45:G51" si="21">C45-$D$52</f>
         <v>1.4537522720609175</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="H45:H51" si="10">G45^2</f>
+        <f t="shared" ref="H45:H51" si="22">G45^2</f>
         <v>2.1133956685222799</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>-1.9849764724018124</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ref="J45:J51" si="11">I45^2</f>
+        <f t="shared" ref="J45:J51" si="23">I45^2</f>
         <v>3.9401315959887433</v>
       </c>
     </row>
@@ -3236,31 +3543,31 @@
         <v>3.9</v>
       </c>
       <c r="D46" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B46))</f>
+        <f t="shared" si="17"/>
         <v>5.1568545799693046</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2568545799693047</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5796834351898175</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-0.14624772793908258</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.1388397927343917E-2</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>-1.2568545799693047</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5796834351898175</v>
       </c>
     </row>
@@ -3272,31 +3579,31 @@
         <v>2.5</v>
       </c>
       <c r="D47" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B47))</f>
+        <f t="shared" si="17"/>
         <v>3.5083234747387415</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0083234747387415</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0167162297092094</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-1.5462477279390825</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.3908820361567749</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>-1.0083234747387415</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.0167162297092094</v>
       </c>
     </row>
@@ -3308,31 +3615,31 @@
         <v>1.3</v>
       </c>
       <c r="D48" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B48))</f>
+        <f t="shared" si="17"/>
         <v>2.2793739638110617</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.97937396381106168</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.95917336099099071</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-2.7462477279390827</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>7.5418765832105734</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>-0.97937396381106168</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.95917336099099071</v>
       </c>
     </row>
@@ -3344,31 +3651,31 @@
         <v>0.9</v>
       </c>
       <c r="D49" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B49))</f>
+        <f t="shared" si="17"/>
         <v>1.8394706292083374</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.93947062920833735</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.88260506314510934</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-3.1462477279390826</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>9.898874765561839</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>-0.93947062920833735</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.88260506314510934</v>
       </c>
     </row>
@@ -3380,31 +3687,31 @@
         <v>0.5</v>
       </c>
       <c r="D50" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B50))</f>
+        <f t="shared" si="17"/>
         <v>1.6608047797359498</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1608047797359498</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.3474677366578269</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-3.5462477279390825</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>12.575872947913105</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>-1.1608047797359498</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.3474677366578269</v>
       </c>
     </row>
@@ -3416,31 +3723,31 @@
         <v>0.2</v>
       </c>
       <c r="D51" s="1">
-        <f>$D$39+$J$25*(EXP($J$26*B51))</f>
+        <f t="shared" si="17"/>
         <v>1.4735330903794168</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2735330903794169</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.621886532291348</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-3.8462477279390823</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>14.793621584676552</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>-1.2735330903794169</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.621886532291348</v>
       </c>
     </row>
@@ -3470,11 +3777,11 @@
       </c>
     </row>
     <row r="54" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="D55" s="11" t="s">
@@ -3531,211 +3838,211 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D57" s="1">
-        <f t="shared" ref="D57:D63" si="12">$G$39+$J$25*(EXP($J$26*B45))</f>
+        <f t="shared" ref="D57:D63" si="24">$G$39+$J$25*(EXP($J$26*B45))</f>
         <v>6.0783483729724779</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ref="E57:E63" si="13">D57-C45</f>
+        <f t="shared" ref="E57:E63" si="25">D57-C45</f>
         <v>0.57834837297247788</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" ref="F57:F63" si="14">E57^2</f>
+        <f t="shared" ref="F57:F63" si="26">E57^2</f>
         <v>0.3344868405199124</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" ref="G57:G63" si="15">C45-$D$52</f>
+        <f t="shared" ref="G57:G63" si="27">C45-$D$52</f>
         <v>1.4537522720609175</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" ref="H57:H63" si="16">G57^2</f>
+        <f t="shared" ref="H57:H63" si="28">G57^2</f>
         <v>2.1133956685222799</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" ref="I57:I63" si="17">C45-D57</f>
+        <f t="shared" ref="I57:I63" si="29">C45-D57</f>
         <v>-0.57834837297247788</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" ref="J57:J63" si="18">I57^2</f>
+        <f t="shared" ref="J57:J63" si="30">I57^2</f>
         <v>0.3344868405199124</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.7502264805399697</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-0.14977351946003026</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.2432107131444064E-2</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-0.14624772793908258</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.1388397927343917E-2</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.14977351946003026</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.2432107131444064E-2</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.1016953753094061</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-0.39830462469059391</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.15864657404991486</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.5462477279390825</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.3908820361567749</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.39830462469059391</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.15864657404991486</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.87274586438172663</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-0.42725413561827341</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.18254609640291797</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.7462477279390827</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>7.5418765832105734</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.42725413561827341</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.18254609640291797</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.43284252977900239</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-0.46715747022099763</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.21823610198328228</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.1462477279390826</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>9.898874765561839</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.46715747022099763</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.21823610198328228</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.25417668030661467</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-0.24582331969338533</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>6.0429104505076332E-2</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.5462477279390825</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>12.575872947913105</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.24582331969338533</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>6.0429104505076332E-2</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.690499095008165E-2</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-0.13309500904991836</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.771428143399785E-2</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.8462477279390823</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>14.793621584676552</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.13309500904991836</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.771428143399785E-2</v>
       </c>
     </row>
@@ -3766,9 +4073,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A28:D28"/>
@@ -3776,6 +4080,9 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3786,13 +4093,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.47912300000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>-2.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.89890400000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.1554899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.53382</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0780599999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.9821400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.2587400000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9.2171299999999992</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
